--- a/3_output/tablas/gse_tables/low_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>6.512106268597563</v>
+        <v>0.8324553117163305</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3642671936086196</v>
+        <v>0.209332251681637</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/low_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.8324553117163305</v>
+        <v>67.891550288703</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8047241718875351</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.08962212772212796</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.209332251681637</v>
+        <v>0.2934480393947849</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/low_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>67.891550288703</v>
+        <v>67.89003235982454</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8047241718875351</v>
+        <v>0.8047304931717933</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.08962212772212796</v>
+        <v>0.08962067712904735</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2934480393947849</v>
+        <v>0.2933106605540498</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/low_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>67.89003235982454</v>
+        <v>63.5491626566145</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8047304931717933</v>
+        <v>0.818001938352076</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.08962067712904735</v>
+        <v>0.08583600860617728</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2933106605540498</v>
+        <v>0.3221439438703993</v>
       </c>
     </row>
   </sheetData>
